--- a/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Dados Educacionais\Censo Educacional 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados Educacionais\Censo Educacional 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81AB30-32D8-41A4-A9DF-EA9CA6CB733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164FF0E-34ED-4112-B5F7-D5ABD03D532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Variáveis</t>
   </si>
@@ -100,54 +100,6 @@
   </si>
   <si>
     <t>QT_MAT_ESP_CE</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_0_3</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_4_5</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_6_10</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_11_14</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_15_17</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_18_MAIS</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_D</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_N</t>
-  </si>
-  <si>
-    <t>QT_MAT_BAS_EAD</t>
-  </si>
-  <si>
-    <t>QT_MAT_INF_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_INF_CRE_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_INF_PRE_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_FUND_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_FUND_AI_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_FUND_AF_INT</t>
-  </si>
-  <si>
-    <t>QT_MAT_MED_INT</t>
   </si>
   <si>
     <t>Filtro</t>
@@ -534,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,102 +645,6 @@
         <v>24</v>
       </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados Educacionais\Censo Educacional 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164FF0E-34ED-4112-B5F7-D5ABD03D532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3164FF0E-34ED-4112-B5F7-D5ABD03D532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607534BA-B8B5-4863-851F-52200398A4B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -139,27 +139,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,10 +153,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,152 +482,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3164FF0E-34ED-4112-B5F7-D5ABD03D532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607534BA-B8B5-4863-851F-52200398A4B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED809946-505C-44C4-876C-4FA8CAF353A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Variáveis</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Filtro</t>
+  </si>
+  <si>
+    <t>CO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>NO_ENTIDADE</t>
   </si>
 </sst>
 </file>
@@ -139,12 +145,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -153,10 +174,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,9 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -482,152 +505,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
+++ b/data/Dados Educacionais/Censo 2017/Filtro_2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED809946-505C-44C4-876C-4FA8CAF353A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2D675-5FC6-49FD-8D50-0A1AD21E1628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Variáveis</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>Filtro</t>
-  </si>
-  <si>
-    <t>CO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>NO_ENTIDADE</t>
   </si>
 </sst>
 </file>
@@ -492,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,147 +516,135 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
